--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value834.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value834.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.6118294486210991</v>
+        <v>1.033231139183044</v>
       </c>
       <c r="B1">
-        <v>1.646610257930762</v>
+        <v>1.447754502296448</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>3.806950330734253</v>
       </c>
       <c r="D1">
-        <v>2.65016823190711</v>
+        <v>2.118509769439697</v>
       </c>
       <c r="E1">
-        <v>1.602628692253914</v>
+        <v>0.8314157128334045</v>
       </c>
     </row>
   </sheetData>
